--- a/instruction set.xlsx
+++ b/instruction set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\ELEC4720\simple-microprocessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F0421-C6F1-4522-B8F7-91AD8E9B1157}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F51D14-C041-4920-B6B9-2C1606D5D598}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14625" activeTab="1" xr2:uid="{9E70275C-4E36-40EE-B9C2-770A43CD022A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14625" firstSheet="1" activeTab="1" xr2:uid="{9E70275C-4E36-40EE-B9C2-770A43CD022A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="134">
   <si>
     <t>add</t>
   </si>
@@ -389,6 +389,45 @@
   </si>
   <si>
     <t>loadval</t>
+  </si>
+  <si>
+    <t>Constant Address Offset</t>
+  </si>
+  <si>
+    <t>add[11]</t>
+  </si>
+  <si>
+    <t>add[10]</t>
+  </si>
+  <si>
+    <t>add[0]</t>
+  </si>
+  <si>
+    <t>add[1]</t>
+  </si>
+  <si>
+    <t>add[2]</t>
+  </si>
+  <si>
+    <t>add[3]</t>
+  </si>
+  <si>
+    <t>add[4]</t>
+  </si>
+  <si>
+    <t>add[5]</t>
+  </si>
+  <si>
+    <t>add[6]</t>
+  </si>
+  <si>
+    <t>add[7]</t>
+  </si>
+  <si>
+    <t>add[8[</t>
+  </si>
+  <si>
+    <t>add[9]</t>
   </si>
 </sst>
 </file>
@@ -556,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,6 +610,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,6 +625,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,15 +641,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -942,27 +984,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
@@ -1372,27 +1414,27 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
@@ -1817,27 +1859,27 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -2052,27 +2094,27 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -2365,27 +2407,27 @@
       <c r="V45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -2545,27 +2587,27 @@
       <c r="V50" s="1"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
@@ -2702,12 +2744,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A51:S51"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A15:S15"/>
     <mergeCell ref="A29:S29"/>
     <mergeCell ref="A36:S36"/>
     <mergeCell ref="A46:S46"/>
-    <mergeCell ref="A51:S51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2717,34 +2759,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C96F46-7E6B-44BD-97DA-F998A498832D}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="T59" sqref="T59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2884,24 +2926,24 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21" t="s">
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2925,18 +2967,18 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2960,18 +3002,18 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2995,18 +3037,18 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3030,18 +3072,18 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3065,18 +3107,18 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3100,18 +3142,18 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -3135,18 +3177,18 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3170,18 +3212,18 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3205,62 +3247,62 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="19"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -3398,24 +3440,24 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21" t="s">
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -3439,18 +3481,18 @@
       <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -3474,62 +3516,62 @@
       <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="18"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="19"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -3667,24 +3709,24 @@
       <c r="G25" s="2">
         <v>0</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21" t="s">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21" t="s">
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3708,18 +3750,18 @@
       <c r="G26" s="2">
         <v>1</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -3743,18 +3785,18 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3778,18 +3820,18 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -3813,18 +3855,18 @@
       <c r="G29" s="2">
         <v>0</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3848,62 +3890,62 @@
       <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -4041,24 +4083,24 @@
       <c r="G35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="7" t="s">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="7" t="s">
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="10"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -4082,18 +4124,18 @@
       <c r="G36" s="2">
         <v>1</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="15"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="13"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -4117,18 +4159,18 @@
       <c r="G37" s="2">
         <v>1</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="15"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="13"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -4152,18 +4194,18 @@
       <c r="G38" s="2">
         <v>0</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="15"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="13"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -4187,18 +4229,18 @@
       <c r="G39" s="2">
         <v>1</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="15"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="13"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -4222,18 +4264,18 @@
       <c r="G40" s="2">
         <v>0</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="15"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="13"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -4257,18 +4299,18 @@
       <c r="G41" s="2">
         <v>1</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="15"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="13"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -4292,62 +4334,62 @@
       <c r="G42" s="2">
         <v>1</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="12"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="16"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="18"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="19"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -4485,24 +4527,24 @@
       <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="7" t="s">
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="7" t="s">
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="10"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -4526,18 +4568,18 @@
       <c r="G48" s="2">
         <v>1</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="15"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="13"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -4561,18 +4603,18 @@
       <c r="G49" s="2">
         <v>0</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="15"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="13"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -4596,18 +4638,18 @@
       <c r="G50" s="2">
         <v>1</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="15"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="13"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -4631,18 +4673,18 @@
       <c r="G51" s="2">
         <v>0</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="15"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="13"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -4666,18 +4708,18 @@
       <c r="G52" s="2">
         <v>1</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="15"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="13"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -4701,18 +4743,18 @@
       <c r="G53" s="2">
         <v>0</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="15"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="13"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -4736,62 +4778,62 @@
       <c r="G54" s="2">
         <v>1</v>
       </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="12"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="16"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="19"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -4929,24 +4971,24 @@
       <c r="G59" s="4">
         <v>0</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="7" t="s">
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="7" t="s">
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="10"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -4970,18 +5012,18 @@
       <c r="G60" s="4">
         <v>1</v>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="15"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="13"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -5005,18 +5047,18 @@
       <c r="G61" s="4">
         <v>0</v>
       </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="15"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="13"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -5040,62 +5082,62 @@
       <c r="G62" s="4">
         <v>1</v>
       </c>
-      <c r="H62" s="10"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="12"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="16"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="18"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="19"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="19"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -5174,18 +5216,10 @@
       <c r="G66" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="H66" s="17"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="19"/>
       <c r="L66" s="2" t="s">
         <v>62</v>
       </c>
@@ -5233,24 +5267,22 @@
       <c r="G67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="7" t="s">
+      <c r="H67" s="8"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="7" t="s">
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="10"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -5274,62 +5306,62 @@
       <c r="G68" s="4">
         <v>1</v>
       </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="12"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="16"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="18"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="19"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -5409,40 +5441,40 @@
         <v>61</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>69</v>
+        <v>123</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q72" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="R72" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="S72" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -5467,24 +5499,20 @@
       <c r="G73" s="2">
         <v>0</v>
       </c>
-      <c r="H73" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
+      <c r="H73" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
       <c r="K73" s="9"/>
-      <c r="L73" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
       <c r="O73" s="9"/>
-      <c r="P73" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="10"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -5508,62 +5536,62 @@
       <c r="G74" s="2">
         <v>1</v>
       </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="12"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="16"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="18"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="19"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
@@ -5701,24 +5729,24 @@
       <c r="G79" s="3">
         <v>0</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="7" t="s">
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="7" t="s">
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="10"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -5742,62 +5770,62 @@
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="10"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="12"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="16"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="20"/>
-      <c r="S81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="20"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
@@ -5929,27 +5957,27 @@
       <c r="E85" s="4">
         <v>1</v>
       </c>
-      <c r="F85" s="20" t="s">
+      <c r="F85" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20" t="s">
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="20"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="47">
     <mergeCell ref="F85:I85"/>
     <mergeCell ref="J85:S85"/>
     <mergeCell ref="A81:S81"/>
@@ -5983,15 +6011,14 @@
     <mergeCell ref="H35:K42"/>
     <mergeCell ref="L35:O42"/>
     <mergeCell ref="P35:S42"/>
+    <mergeCell ref="H73:S74"/>
     <mergeCell ref="A70:S70"/>
     <mergeCell ref="A56:S56"/>
     <mergeCell ref="A63:S63"/>
     <mergeCell ref="A55:S55"/>
     <mergeCell ref="A64:S64"/>
     <mergeCell ref="H59:K62"/>
-    <mergeCell ref="H73:K74"/>
-    <mergeCell ref="L73:O74"/>
-    <mergeCell ref="P73:S74"/>
+    <mergeCell ref="H66:K66"/>
     <mergeCell ref="L59:O62"/>
     <mergeCell ref="P59:S62"/>
     <mergeCell ref="A69:S69"/>
@@ -6299,7 +6326,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66:S66">
+  <conditionalFormatting sqref="L66:S66 H66">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>

--- a/instruction set.xlsx
+++ b/instruction set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\ELEC4720\simple-microprocessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F51D14-C041-4920-B6B9-2C1606D5D598}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946595D2-8199-4A1D-8D4C-C24A31073DD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14625" firstSheet="1" activeTab="1" xr2:uid="{9E70275C-4E36-40EE-B9C2-770A43CD022A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="138">
   <si>
     <t>add</t>
   </si>
@@ -428,6 +428,18 @@
   </si>
   <si>
     <t>add[9]</t>
+  </si>
+  <si>
+    <t>opcode / Funct - 6 bits</t>
+  </si>
+  <si>
+    <t>rs - 4 bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt - 4 bits </t>
+  </si>
+  <si>
+    <t>rd - 4 bits</t>
   </si>
 </sst>
 </file>
@@ -595,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -613,7 +625,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -623,15 +641,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -652,14 +661,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,27 +1008,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
@@ -1414,27 +1438,27 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
@@ -1859,27 +1883,27 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -2094,27 +2118,27 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -2407,27 +2431,27 @@
       <c r="V45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -2587,27 +2611,27 @@
       <c r="V50" s="1"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
@@ -2757,36 +2781,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C96F46-7E6B-44BD-97DA-F998A498832D}">
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="T59" sqref="T59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2926,24 +2950,24 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22" t="s">
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2967,18 +2991,18 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3002,18 +3026,18 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3037,18 +3061,18 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3072,18 +3096,18 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3107,18 +3131,18 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3142,18 +3166,18 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -3177,18 +3201,18 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3212,18 +3236,18 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3247,62 +3271,62 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -3440,24 +3464,24 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22" t="s">
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22" t="s">
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -3481,18 +3505,18 @@
       <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -3516,62 +3540,62 @@
       <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -3709,24 +3733,24 @@
       <c r="G25" s="2">
         <v>0</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22" t="s">
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22" t="s">
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3750,18 +3774,18 @@
       <c r="G26" s="2">
         <v>1</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -3785,18 +3809,18 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3820,18 +3844,18 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -3855,18 +3879,18 @@
       <c r="G29" s="2">
         <v>0</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3890,39 +3914,39 @@
       <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
@@ -4036,29 +4060,29 @@
       <c r="K34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" s="2" t="s">
+      <c r="L34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="M34" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="N34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="O34" s="7" t="s">
         <v>69</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -4083,24 +4107,24 @@
       <c r="G35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="8" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="8" t="s">
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="10"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -4124,18 +4148,18 @@
       <c r="G36" s="2">
         <v>1</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="13"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="23"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -4159,18 +4183,18 @@
       <c r="G37" s="2">
         <v>1</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="13"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="23"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -4194,18 +4218,18 @@
       <c r="G38" s="2">
         <v>0</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="13"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="23"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -4229,18 +4253,18 @@
       <c r="G39" s="2">
         <v>1</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="13"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="23"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -4264,18 +4288,18 @@
       <c r="G40" s="2">
         <v>0</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="13"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="23"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -4299,18 +4323,18 @@
       <c r="G41" s="2">
         <v>1</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="13"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="23"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -4334,62 +4358,62 @@
       <c r="G42" s="2">
         <v>1</v>
       </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="16"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="15"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="19"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -4480,29 +4504,29 @@
       <c r="K46" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P46" s="2" t="s">
+      <c r="L46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="M46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R46" s="2" t="s">
+      <c r="N46" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="S46" s="2" t="s">
+      <c r="O46" s="7" t="s">
         <v>69</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -4527,24 +4551,24 @@
       <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="8" t="s">
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="8" t="s">
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="10"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="12"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -4568,18 +4592,18 @@
       <c r="G48" s="2">
         <v>1</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="13"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="23"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -4603,18 +4627,18 @@
       <c r="G49" s="2">
         <v>0</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="13"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="23"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -4638,18 +4662,18 @@
       <c r="G50" s="2">
         <v>1</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="13"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="23"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -4673,18 +4697,18 @@
       <c r="G51" s="2">
         <v>0</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="13"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="23"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -4708,18 +4732,18 @@
       <c r="G52" s="2">
         <v>1</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="13"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="23"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -4743,18 +4767,18 @@
       <c r="G53" s="2">
         <v>0</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="13"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="23"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -4778,62 +4802,62 @@
       <c r="G54" s="2">
         <v>1</v>
       </c>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="16"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="15"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="19"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="18"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -4924,29 +4948,29 @@
       <c r="K58" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P58" s="2" t="s">
+      <c r="L58" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="M58" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="N58" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="S58" s="2" t="s">
+      <c r="O58" s="7" t="s">
         <v>69</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="R58" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -4971,24 +4995,24 @@
       <c r="G59" s="4">
         <v>0</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="8" t="s">
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="8" t="s">
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="10"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="12"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -5012,18 +5036,18 @@
       <c r="G60" s="4">
         <v>1</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="13"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="23"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -5047,18 +5071,18 @@
       <c r="G61" s="4">
         <v>0</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="13"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="23"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -5082,62 +5106,62 @@
       <c r="G62" s="4">
         <v>1</v>
       </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="16"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="15"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="19"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="18"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="19"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="18"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -5216,33 +5240,33 @@
       <c r="G66" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H66" s="17"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P66" s="2" t="s">
+      <c r="H66" s="16"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q66" s="2" t="s">
+      <c r="M66" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R66" s="2" t="s">
+      <c r="N66" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="S66" s="2" t="s">
+      <c r="O66" s="7" t="s">
         <v>69</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="R66" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S66" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5267,22 +5291,22 @@
       <c r="G67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="8"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="8" t="s">
+      <c r="H67" s="10"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="8" t="s">
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="10"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="12"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -5306,39 +5330,39 @@
       <c r="G68" s="4">
         <v>1</v>
       </c>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="16"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="15"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="19"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="18"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
@@ -5499,20 +5523,20 @@
       <c r="G73" s="2">
         <v>0</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="10"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="12"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -5536,62 +5560,62 @@
       <c r="G74" s="2">
         <v>1</v>
       </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="16"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="15"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="19"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="18"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
@@ -5729,24 +5753,24 @@
       <c r="G79" s="3">
         <v>0</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="8" t="s">
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="8" t="s">
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="10"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="12"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -5770,62 +5794,62 @@
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="16"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
@@ -5957,35 +5981,138 @@
       <c r="E85" s="4">
         <v>1</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F85" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B87" s="7">
+        <v>17</v>
+      </c>
+      <c r="C87" s="7">
+        <v>16</v>
+      </c>
+      <c r="D87" s="7">
+        <v>15</v>
+      </c>
+      <c r="E87" s="7">
+        <v>14</v>
+      </c>
+      <c r="F87" s="7">
+        <v>13</v>
+      </c>
+      <c r="G87" s="7">
+        <v>12</v>
+      </c>
+      <c r="H87" s="7">
+        <v>11</v>
+      </c>
+      <c r="I87" s="7">
+        <v>10</v>
+      </c>
+      <c r="J87" s="7">
+        <v>9</v>
+      </c>
+      <c r="K87" s="7">
+        <v>8</v>
+      </c>
+      <c r="L87" s="7">
+        <v>7</v>
+      </c>
+      <c r="M87" s="7">
+        <v>6</v>
+      </c>
+      <c r="N87" s="7">
+        <v>5</v>
+      </c>
+      <c r="O87" s="7">
+        <v>4</v>
+      </c>
+      <c r="P87" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>2</v>
+      </c>
+      <c r="R87" s="7">
+        <v>1</v>
+      </c>
+      <c r="S87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B88" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:S85"/>
-    <mergeCell ref="A81:S81"/>
-    <mergeCell ref="A82:S82"/>
-    <mergeCell ref="A76:S76"/>
-    <mergeCell ref="H79:K80"/>
-    <mergeCell ref="L79:O80"/>
-    <mergeCell ref="P79:S80"/>
+  <mergeCells count="51">
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H73:S74"/>
+    <mergeCell ref="A70:S70"/>
+    <mergeCell ref="A56:S56"/>
+    <mergeCell ref="A63:S63"/>
+    <mergeCell ref="A55:S55"/>
+    <mergeCell ref="A64:S64"/>
+    <mergeCell ref="H59:K62"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L59:O62"/>
+    <mergeCell ref="P59:S62"/>
+    <mergeCell ref="A69:S69"/>
+    <mergeCell ref="H67:K68"/>
+    <mergeCell ref="L67:O68"/>
+    <mergeCell ref="P67:S68"/>
+    <mergeCell ref="P18:S20"/>
+    <mergeCell ref="H25:K30"/>
+    <mergeCell ref="L25:O30"/>
+    <mergeCell ref="P25:S30"/>
+    <mergeCell ref="A43:S43"/>
+    <mergeCell ref="A21:S21"/>
+    <mergeCell ref="H35:K42"/>
+    <mergeCell ref="L35:O42"/>
+    <mergeCell ref="P35:S42"/>
     <mergeCell ref="A75:S75"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A15:S15"/>
@@ -6002,32 +6129,17 @@
     <mergeCell ref="L47:O54"/>
     <mergeCell ref="P47:S54"/>
     <mergeCell ref="L18:O20"/>
-    <mergeCell ref="P18:S20"/>
-    <mergeCell ref="H25:K30"/>
-    <mergeCell ref="L25:O30"/>
-    <mergeCell ref="P25:S30"/>
-    <mergeCell ref="A43:S43"/>
-    <mergeCell ref="A21:S21"/>
-    <mergeCell ref="H35:K42"/>
-    <mergeCell ref="L35:O42"/>
-    <mergeCell ref="P35:S42"/>
-    <mergeCell ref="H73:S74"/>
-    <mergeCell ref="A70:S70"/>
-    <mergeCell ref="A56:S56"/>
-    <mergeCell ref="A63:S63"/>
-    <mergeCell ref="A55:S55"/>
-    <mergeCell ref="A64:S64"/>
-    <mergeCell ref="H59:K62"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L59:O62"/>
-    <mergeCell ref="P59:S62"/>
-    <mergeCell ref="A69:S69"/>
-    <mergeCell ref="H67:K68"/>
-    <mergeCell ref="L67:O68"/>
-    <mergeCell ref="P67:S68"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:S85"/>
+    <mergeCell ref="A81:S81"/>
+    <mergeCell ref="A82:S82"/>
+    <mergeCell ref="A76:S76"/>
+    <mergeCell ref="H79:K80"/>
+    <mergeCell ref="L79:O80"/>
+    <mergeCell ref="P79:S80"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G13">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6039,7 +6151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:G20">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6051,7 +6163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:G30">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6063,7 +6175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:S3">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6075,7 +6187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S2">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6087,7 +6199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:S16">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6099,7 +6211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:S23">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6110,8 +6222,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46:S46">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="H46:K46">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6123,7 +6235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:G54">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6135,7 +6247,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:C54">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6147,7 +6259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B42">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6159,7 +6271,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C42">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6171,7 +6283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D42">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6183,7 +6295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:D42">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6195,6 +6307,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:G42">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:S33">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:S45">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:O34">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:S71">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:G74">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -6206,7 +6378,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:S33">
+  <conditionalFormatting sqref="B65:S65">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6218,7 +6390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:S45">
+  <conditionalFormatting sqref="B57:S57">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -6230,8 +6402,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:S34">
+  <conditionalFormatting sqref="B67:G68">
     <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:G62">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58:K58">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6242,31 +6438,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:S71">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73:G74">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65:S65">
+  <conditionalFormatting sqref="H66">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6278,7 +6450,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:S57">
+  <conditionalFormatting sqref="H72:S72">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6290,19 +6462,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:G68">
+  <conditionalFormatting sqref="B77:S77">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:G62">
+  <conditionalFormatting sqref="B47:G54">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6314,31 +6486,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58:S58">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L66:S66 H66">
+  <conditionalFormatting sqref="B79:G80">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72:S72">
+  <conditionalFormatting sqref="P84:S84">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6350,7 +6510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77:S77">
+  <conditionalFormatting sqref="B83:S83">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6362,7 +6522,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:G54">
+  <conditionalFormatting sqref="B85:E85">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6374,19 +6534,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:G80">
+  <conditionalFormatting sqref="P88">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87:S87">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P84:S84">
+  <conditionalFormatting sqref="L46:O46">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6398,7 +6570,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:S83">
+  <conditionalFormatting sqref="L58:O58">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6410,14 +6582,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85:E85">
+  <conditionalFormatting sqref="L66:O66">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>

--- a/instruction set.xlsx
+++ b/instruction set.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emilt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emilt\Desktop\simple-microprocessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E42C363-C47B-481D-8FB1-07D2837DC2EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABEBB7E-0712-44EE-A174-890B8DABBEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{9E70275C-4E36-40EE-B9C2-770A43CD022A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="99">
   <si>
     <t>add</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>add[9]</t>
+  </si>
+  <si>
+    <t>funct</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>rd</t>
   </si>
 </sst>
 </file>
@@ -477,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,7 +509,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -507,6 +519,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -527,20 +548,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5DD856-B19A-4C70-8061-EC351D58E8D7}">
-  <dimension ref="A1:AN78"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="W69" sqref="W69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1358,25 +1373,25 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
@@ -1770,25 +1785,25 @@
       <c r="AN23" s="7"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="21"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
@@ -2172,25 +2187,25 @@
       <c r="AN30" s="7"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="21"/>
       <c r="V31" s="8"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
@@ -2464,18 +2479,18 @@
       <c r="G36" s="4">
         <v>1</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="18"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37" s="22"/>
@@ -2698,18 +2713,18 @@
       <c r="G42" s="1">
         <v>1</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="21"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="15"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
@@ -2733,18 +2748,18 @@
       <c r="G43" s="1">
         <v>0</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="21"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="15"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -2768,18 +2783,18 @@
       <c r="G44" s="1">
         <v>1</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="21"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="15"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
@@ -2803,18 +2818,18 @@
       <c r="G45" s="1">
         <v>0</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="21"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="15"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
@@ -2838,18 +2853,18 @@
       <c r="G46" s="1">
         <v>1</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="21"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="15"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -2873,18 +2888,18 @@
       <c r="G47" s="1">
         <v>0</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="21"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="15"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
@@ -2908,18 +2923,18 @@
       <c r="G48" s="1">
         <v>1</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="15"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="18"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="22"/>
@@ -2943,27 +2958,27 @@
       <c r="S49" s="22"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
@@ -3142,18 +3157,18 @@
       <c r="G54" s="4">
         <v>1</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="21"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="15"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
@@ -3177,18 +3192,18 @@
       <c r="G55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="21"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="15"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
@@ -3212,18 +3227,18 @@
       <c r="G56" s="4">
         <v>0</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="21"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="15"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
@@ -3247,62 +3262,62 @@
       <c r="G57" s="4">
         <v>1</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="15"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="18"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="18"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="21"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="18"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="21"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
@@ -3485,14 +3500,14 @@
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="21"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="15"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
@@ -3516,18 +3531,18 @@
       <c r="G64" s="2">
         <v>0</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="21"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="15"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
@@ -3551,62 +3566,62 @@
       <c r="G65" s="2">
         <v>1</v>
       </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="15"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="18"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="18"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="21"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="18"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="21"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
@@ -3685,10 +3700,10 @@
       <c r="G69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="18"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="21"/>
       <c r="L69" s="3" t="s">
         <v>39</v>
       </c>
@@ -3736,7 +3751,9 @@
       <c r="G70" s="2">
         <v>0</v>
       </c>
-      <c r="H70" s="10"/>
+      <c r="H70" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="12"/>
@@ -3775,62 +3792,62 @@
       <c r="G71" s="2">
         <v>1</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="15"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="18"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="18"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="21"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
@@ -4005,58 +4022,146 @@
       <c r="G77" s="4">
         <v>1</v>
       </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="15"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="18"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" s="16"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="18"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="21"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A81" s="9">
+        <v>17</v>
+      </c>
+      <c r="B81" s="9">
+        <v>16</v>
+      </c>
+      <c r="C81" s="9">
+        <v>15</v>
+      </c>
+      <c r="D81" s="9">
+        <v>14</v>
+      </c>
+      <c r="E81" s="9">
+        <v>13</v>
+      </c>
+      <c r="F81" s="9">
+        <v>12</v>
+      </c>
+      <c r="G81" s="9">
+        <v>11</v>
+      </c>
+      <c r="H81" s="9">
+        <v>10</v>
+      </c>
+      <c r="I81" s="9">
+        <v>9</v>
+      </c>
+      <c r="J81" s="9">
+        <v>8</v>
+      </c>
+      <c r="K81" s="9">
+        <v>7</v>
+      </c>
+      <c r="L81" s="9">
+        <v>6</v>
+      </c>
+      <c r="M81" s="9">
+        <v>5</v>
+      </c>
+      <c r="N81" s="9">
+        <v>4</v>
+      </c>
+      <c r="O81" s="9">
+        <v>3</v>
+      </c>
+      <c r="P81" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="9">
+        <v>1</v>
+      </c>
+      <c r="R81" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A82" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="L53:O57"/>
-    <mergeCell ref="A24:S24"/>
-    <mergeCell ref="A72:S72"/>
-    <mergeCell ref="H62:K63"/>
-    <mergeCell ref="H64:K65"/>
-    <mergeCell ref="A37:S37"/>
-    <mergeCell ref="A25:S25"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="H28:K30"/>
-    <mergeCell ref="L28:O30"/>
-    <mergeCell ref="P28:S30"/>
-    <mergeCell ref="A32:S32"/>
-    <mergeCell ref="H35:K36"/>
-    <mergeCell ref="L35:O36"/>
-    <mergeCell ref="P35:S36"/>
-    <mergeCell ref="A50:S50"/>
+  <mergeCells count="48">
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="H62:K65"/>
+    <mergeCell ref="A78:S78"/>
+    <mergeCell ref="A67:S67"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L62:O65"/>
+    <mergeCell ref="P62:S65"/>
+    <mergeCell ref="H70:K71"/>
+    <mergeCell ref="L70:O71"/>
+    <mergeCell ref="P70:S71"/>
+    <mergeCell ref="P18:S23"/>
+    <mergeCell ref="A73:S73"/>
+    <mergeCell ref="H76:S77"/>
+    <mergeCell ref="A59:S59"/>
+    <mergeCell ref="A66:S66"/>
     <mergeCell ref="H53:K57"/>
     <mergeCell ref="P53:S57"/>
     <mergeCell ref="A58:S58"/>
@@ -4073,22 +4178,23 @@
     <mergeCell ref="A15:S15"/>
     <mergeCell ref="H18:K23"/>
     <mergeCell ref="L18:O23"/>
-    <mergeCell ref="P18:S23"/>
-    <mergeCell ref="A73:S73"/>
-    <mergeCell ref="H76:S77"/>
-    <mergeCell ref="A59:S59"/>
-    <mergeCell ref="A66:S66"/>
-    <mergeCell ref="A78:S78"/>
-    <mergeCell ref="A67:S67"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L62:O65"/>
-    <mergeCell ref="P62:S65"/>
-    <mergeCell ref="H70:K71"/>
-    <mergeCell ref="L70:O71"/>
-    <mergeCell ref="P70:S71"/>
+    <mergeCell ref="L53:O57"/>
+    <mergeCell ref="A24:S24"/>
+    <mergeCell ref="A72:S72"/>
+    <mergeCell ref="A37:S37"/>
+    <mergeCell ref="A25:S25"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="H28:K30"/>
+    <mergeCell ref="L28:O30"/>
+    <mergeCell ref="P28:S30"/>
+    <mergeCell ref="A32:S32"/>
+    <mergeCell ref="H35:K36"/>
+    <mergeCell ref="L35:O36"/>
+    <mergeCell ref="P35:S36"/>
+    <mergeCell ref="A50:S50"/>
   </mergeCells>
   <conditionalFormatting sqref="H40:K40">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4100,7 +4206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:G48">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4112,7 +4218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:C48">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4124,6 +4230,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:S39">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:G48">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:O40">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -4135,19 +4265,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:G48">
+  <conditionalFormatting sqref="B68:S68">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:O40">
+  <conditionalFormatting sqref="B60:S60">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -4159,32 +4289,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68:S68">
+  <conditionalFormatting sqref="B70:G71">
     <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:S60">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70:G71">
-    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4196,7 +4302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:G65">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4208,6 +4314,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61:K61">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61:O61">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -4219,7 +4349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="L69:O69">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4231,7 +4361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L61:O61">
+  <conditionalFormatting sqref="B74:S74">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -4243,19 +4373,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:O69">
+  <conditionalFormatting sqref="B76:G77">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:S74">
+  <conditionalFormatting sqref="H75:S75">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -4267,32 +4397,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76:G77">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75:S75">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B51:S51">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4304,6 +4410,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:O52">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:G13">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:S3">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -4315,8 +4445,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:G13">
+  <conditionalFormatting sqref="B2:S2">
     <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:G23">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4327,19 +4469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:S3">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:S2">
+  <conditionalFormatting sqref="B16:S16">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4351,32 +4481,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:G23">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:S16">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B53:B57">
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4388,7 +4494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C57">
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4400,7 +4506,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:D57">
-    <cfRule type="colorScale" priority="88">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4412,7 +4518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:D57">
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4424,7 +4530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:G57">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4436,7 +4542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:G57">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4448,7 +4554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:AB27">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4460,7 +4566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23:AN23">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4472,7 +4578,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30:AN30">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4484,7 +4590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32:AB33">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4496,7 +4602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:G30">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4508,7 +4614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:S26">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4520,6 +4626,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:S33">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:G36">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:R81">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4531,14 +4661,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:G36">
+  <conditionalFormatting sqref="G82 K82 O82">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
